--- a/bean - lote.xlsx
+++ b/bean - lote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Ryan\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Nimo Lottery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ABB65A-850D-4231-B142-3C716290B27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC71D199-73AF-411A-BE5B-7FD21B85D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="-45" windowWidth="9465" windowHeight="15510" firstSheet="4" activeTab="4" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="30840" yWindow="3615" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -9774,7 +9774,7 @@
         <v>3600</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:C232" si="12">B198</f>
+        <f t="shared" ref="C198:C226" si="12">B198</f>
         <v>3600</v>
       </c>
       <c r="D198" s="1">
@@ -9782,11 +9782,11 @@
         <v>160350</v>
       </c>
       <c r="E198">
-        <f t="shared" ref="E198:E232" si="13">B198*45</f>
+        <f t="shared" ref="E198:E226" si="13">B198*45</f>
         <v>162000</v>
       </c>
       <c r="F198">
-        <f t="shared" ref="F198:F232" si="14">E198-D198</f>
+        <f t="shared" ref="F198:F226" si="14">E198-D198</f>
         <v>1650</v>
       </c>
     </row>
@@ -12390,8 +12390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44EAED4-A00C-48E8-96C5-24EB594625E3}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12739,7 +12739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657F63FD-C8A7-4F2B-99BB-62768698F88D}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -17516,8 +17516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED91CD1-2069-4860-AAC1-395BF7FDC1B8}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I4"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bean - lote.xlsx
+++ b/bean - lote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Nimo Lottery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0284C5-FF61-4527-A720-C61B0A62117E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B1C9F-7D3E-4D1F-867F-2661353297A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="13" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Box1,2,3,4 - Seperately" sheetId="5" r:id="rId5"/>
     <sheet name="3 other boxes - Row" sheetId="7" r:id="rId6"/>
     <sheet name="Box x10 (not use)" sheetId="6" r:id="rId7"/>
-    <sheet name="Box x10 Win 500(cur use)" sheetId="12" r:id="rId8"/>
-    <sheet name="Box x15 Win &gt; 0 (not use)" sheetId="8" r:id="rId9"/>
-    <sheet name="Box x15 Win 1k (cur use)" sheetId="13" r:id="rId10"/>
+    <sheet name="Box x10 Win 500(use)" sheetId="12" r:id="rId8"/>
+    <sheet name="Box x15 Win &gt; 0" sheetId="8" r:id="rId9"/>
+    <sheet name="Box x15 Win 1k (use)" sheetId="13" r:id="rId10"/>
     <sheet name="Box x25" sheetId="9" r:id="rId11"/>
     <sheet name="Box x25 Win 1k" sheetId="11" r:id="rId12"/>
-    <sheet name="Box x45" sheetId="10" r:id="rId13"/>
-    <sheet name="Box x45 Win 4k (use)" sheetId="15" r:id="rId14"/>
+    <sheet name="Box x25 Win 2k (use)" sheetId="16" r:id="rId13"/>
+    <sheet name="Box x45" sheetId="10" r:id="rId14"/>
+    <sheet name="Box x45 Win 4k (use)" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="30">
   <si>
     <t>x10</t>
   </si>
@@ -2098,7 +2099,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -2125,7 +2126,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -2155,7 +2156,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2185,7 +2186,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -2209,7 +2210,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -2233,7 +2234,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>150</v>
@@ -2257,7 +2258,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>150</v>
@@ -2281,7 +2282,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>150</v>
@@ -2305,7 +2306,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -2329,7 +2330,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>150</v>
@@ -2353,7 +2354,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -2377,7 +2378,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -2401,7 +2402,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -2425,7 +2426,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>250</v>
@@ -2449,7 +2450,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>250</v>
@@ -2473,7 +2474,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>250</v>
@@ -2497,7 +2498,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>300</v>
@@ -2521,7 +2522,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>300</v>
@@ -2545,7 +2546,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -2569,7 +2570,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>350</v>
@@ -2593,7 +2594,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>350</v>
@@ -2617,7 +2618,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>400</v>
@@ -2641,7 +2642,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>400</v>
@@ -2665,7 +2666,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>450</v>
@@ -2689,7 +2690,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>500</v>
@@ -2713,7 +2714,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>500</v>
@@ -2737,7 +2738,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>550</v>
@@ -2761,7 +2762,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>600</v>
@@ -2785,7 +2786,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>650</v>
@@ -2809,7 +2810,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>700</v>
@@ -2833,7 +2834,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>750</v>
@@ -2857,7 +2858,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>800</v>
@@ -2881,7 +2882,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>850</v>
@@ -2905,7 +2906,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>900</v>
@@ -2929,7 +2930,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>950</v>
@@ -2953,7 +2954,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>1050</v>
@@ -2977,7 +2978,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>1100</v>
@@ -3001,7 +3002,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>1200</v>
@@ -3025,7 +3026,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>1300</v>
@@ -3049,7 +3050,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>1350</v>
@@ -3073,7 +3074,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>1450</v>
@@ -3097,7 +3098,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>1550</v>
@@ -3121,7 +3122,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>1700</v>
@@ -3145,7 +3146,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>1800</v>
@@ -3169,7 +3170,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>1950</v>
@@ -3193,7 +3194,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>2050</v>
@@ -3217,7 +3218,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>2200</v>
@@ -3241,7 +3242,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>2350</v>
@@ -3265,7 +3266,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>2550</v>
@@ -3289,7 +3290,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>2700</v>
@@ -3313,7 +3314,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>2900</v>
@@ -3337,7 +3338,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>3100</v>
@@ -3361,7 +3362,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>3350</v>
@@ -3385,7 +3386,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>3600</v>
@@ -3409,7 +3410,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>3850</v>
@@ -3433,7 +3434,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>4100</v>
@@ -3457,7 +3458,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>4400</v>
@@ -3481,7 +3482,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>4700</v>
@@ -3505,7 +3506,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>5050</v>
@@ -3529,7 +3530,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B61">
         <v>5400</v>
@@ -3553,7 +3554,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>5800</v>
@@ -3577,7 +3578,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>6200</v>
@@ -3601,7 +3602,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>6650</v>
@@ -3625,7 +3626,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>7150</v>
@@ -3649,7 +3650,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>7650</v>
@@ -3673,13 +3674,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>8200</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C92" si="3">B67</f>
+        <f t="shared" ref="C67:C84" si="3">B67</f>
         <v>8200</v>
       </c>
       <c r="D67" s="1">
@@ -3687,17 +3688,17 @@
         <v>121600</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E92" si="4">B67*15</f>
+        <f t="shared" ref="E67:E84" si="4">B67*15</f>
         <v>123000</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F92" si="5">E67-D67</f>
+        <f t="shared" ref="F67:F84" si="5">E67-D67</f>
         <v>1400</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>8800</v>
@@ -3721,7 +3722,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>9400</v>
@@ -3745,7 +3746,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>10100</v>
@@ -3769,7 +3770,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>10800</v>
@@ -3793,7 +3794,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>11550</v>
@@ -3817,7 +3818,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>12400</v>
@@ -3841,7 +3842,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>13300</v>
@@ -3865,7 +3866,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>14250</v>
@@ -3889,7 +3890,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>15250</v>
@@ -3913,7 +3914,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>16350</v>
@@ -3937,7 +3938,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>17500</v>
@@ -3961,7 +3962,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>18750</v>
@@ -3985,7 +3986,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B80">
         <v>20100</v>
@@ -4009,7 +4010,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B81">
         <v>21550</v>
@@ -4033,7 +4034,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B82">
         <v>23050</v>
@@ -4057,7 +4058,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B83">
         <v>24700</v>
@@ -4081,7 +4082,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B84">
         <v>26500</v>
@@ -10083,6 +10084,2963 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79893292-557B-4253-8167-4421586F24A1}">
+  <dimension ref="A1:I122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B122" sqref="A2:B122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM($C$2:C2)</f>
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <f>B2*25</f>
+        <v>2500</v>
+      </c>
+      <c r="F2">
+        <f>E2-D2</f>
+        <v>2400</v>
+      </c>
+      <c r="H2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">B3</f>
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM($C$2:C3)</f>
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">B3*25</f>
+        <v>2500</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">E3-D3</f>
+        <v>2300</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM($C$2:C4)</f>
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SUM($C$2:C5)</f>
+        <v>400</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM($C$2:C6)</f>
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUM($C$2:C7)</f>
+        <v>650</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM($C$2:C8)</f>
+        <v>800</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUM($C$2:C9)</f>
+        <v>950</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM($C$2:C10)</f>
+        <v>1100</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>150</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM($C$2:C11)</f>
+        <v>1250</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D12" s="1">
+        <f>SUM($C$2:C12)</f>
+        <v>1400</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUM($C$2:C13)</f>
+        <v>1550</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>150</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SUM($C$2:C14)</f>
+        <v>1700</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D15" s="1">
+        <f>SUM($C$2:C15)</f>
+        <v>1900</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM($C$2:C16)</f>
+        <v>2100</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D17" s="1">
+        <f>SUM($C$2:C17)</f>
+        <v>2300</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUM($C$2:C18)</f>
+        <v>2500</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D19" s="1">
+        <f>SUM($C$2:C19)</f>
+        <v>2700</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D20" s="1">
+        <f>SUM($C$2:C20)</f>
+        <v>2900</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>250</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D21" s="1">
+        <f>SUM($C$2:C21)</f>
+        <v>3150</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>250</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D22" s="1">
+        <f>SUM($C$2:C22)</f>
+        <v>3400</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>250</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D23" s="1">
+        <f>SUM($C$2:C23)</f>
+        <v>3650</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>250</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D24" s="1">
+        <f>SUM($C$2:C24)</f>
+        <v>3900</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>250</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D25" s="1">
+        <f>SUM($C$2:C25)</f>
+        <v>4150</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>300</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM($C$2:C26)</f>
+        <v>4450</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>300</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM($C$2:C27)</f>
+        <v>4750</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>300</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D28" s="1">
+        <f>SUM($C$2:C28)</f>
+        <v>5050</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>300</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D29" s="1">
+        <f>SUM($C$2:C29)</f>
+        <v>5350</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>350</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUM($C$2:C30)</f>
+        <v>5700</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>8750</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>350</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="D31" s="1">
+        <f>SUM($C$2:C31)</f>
+        <v>6050</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>8750</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>350</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="D32" s="1">
+        <f>SUM($C$2:C32)</f>
+        <v>6400</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>8750</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>350</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="D33" s="1">
+        <f>SUM($C$2:C33)</f>
+        <v>6750</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>8750</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>400</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D34" s="1">
+        <f>SUM($C$2:C34)</f>
+        <v>7150</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>400</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D35" s="1">
+        <f>SUM($C$2:C35)</f>
+        <v>7550</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>400</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D36" s="1">
+        <f>SUM($C$2:C36)</f>
+        <v>7950</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>65</v>
+      </c>
+      <c r="B37">
+        <v>450</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="D37" s="1">
+        <f>SUM($C$2:C37)</f>
+        <v>8400</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>11250</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>66</v>
+      </c>
+      <c r="B38">
+        <v>450</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="D38" s="1">
+        <f>SUM($C$2:C38)</f>
+        <v>8850</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>11250</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <v>500</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D39" s="1">
+        <f>SUM($C$2:C39)</f>
+        <v>9350</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>68</v>
+      </c>
+      <c r="B40">
+        <v>500</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D40" s="1">
+        <f>SUM($C$2:C40)</f>
+        <v>9850</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <v>500</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D41" s="1">
+        <f>SUM($C$2:C41)</f>
+        <v>10350</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>70</v>
+      </c>
+      <c r="B42">
+        <v>550</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="D42" s="1">
+        <f>SUM($C$2:C42)</f>
+        <v>10900</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>13750</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>550</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="D43" s="1">
+        <f>SUM($C$2:C43)</f>
+        <v>11450</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>13750</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <v>600</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D44" s="1">
+        <f>SUM($C$2:C44)</f>
+        <v>12050</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <v>600</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D45" s="1">
+        <f>SUM($C$2:C45)</f>
+        <v>12650</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>650</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="D46" s="1">
+        <f>SUM($C$2:C46)</f>
+        <v>13300</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>16250</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>650</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="D47" s="1">
+        <f>SUM($C$2:C47)</f>
+        <v>13950</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>16250</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>700</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D48" s="1">
+        <f>SUM($C$2:C48)</f>
+        <v>14650</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>17500</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>700</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D49" s="1">
+        <f>SUM($C$2:C49)</f>
+        <v>15350</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>17500</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>78</v>
+      </c>
+      <c r="B50">
+        <v>750</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="D50" s="1">
+        <f>SUM($C$2:C50)</f>
+        <v>16100</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>18750</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>79</v>
+      </c>
+      <c r="B51">
+        <v>800</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D51" s="1">
+        <f>SUM($C$2:C51)</f>
+        <v>16900</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>800</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D52" s="1">
+        <f>SUM($C$2:C52)</f>
+        <v>17700</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>81</v>
+      </c>
+      <c r="B53">
+        <v>850</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="D53" s="1">
+        <f>SUM($C$2:C53)</f>
+        <v>18550</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>21250</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>82</v>
+      </c>
+      <c r="B54">
+        <v>900</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D54" s="1">
+        <f>SUM($C$2:C54)</f>
+        <v>19450</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>83</v>
+      </c>
+      <c r="B55">
+        <v>900</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D55" s="1">
+        <f>SUM($C$2:C55)</f>
+        <v>20350</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>84</v>
+      </c>
+      <c r="B56">
+        <v>950</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="D56" s="1">
+        <f>SUM($C$2:C56)</f>
+        <v>21300</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>23750</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>85</v>
+      </c>
+      <c r="B57">
+        <v>1000</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D57" s="1">
+        <f>SUM($C$2:C57)</f>
+        <v>22300</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <v>1050</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="D58" s="1">
+        <f>SUM($C$2:C58)</f>
+        <v>23350</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>26250</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>87</v>
+      </c>
+      <c r="B59">
+        <v>1100</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="D59" s="1">
+        <f>SUM($C$2:C59)</f>
+        <v>24450</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>27500</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>88</v>
+      </c>
+      <c r="B60">
+        <v>1150</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="D60" s="1">
+        <f>SUM($C$2:C60)</f>
+        <v>25600</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>28750</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>89</v>
+      </c>
+      <c r="B61">
+        <v>1150</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="D61" s="1">
+        <f>SUM($C$2:C61)</f>
+        <v>26750</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>28750</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>90</v>
+      </c>
+      <c r="B62">
+        <v>1200</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="D62" s="1">
+        <f>SUM($C$2:C62)</f>
+        <v>27950</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>91</v>
+      </c>
+      <c r="B63">
+        <v>1250</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="D63" s="1">
+        <f>SUM($C$2:C63)</f>
+        <v>29200</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>31250</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>92</v>
+      </c>
+      <c r="B64">
+        <v>1300</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="D64" s="1">
+        <f>SUM($C$2:C64)</f>
+        <v>30500</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>93</v>
+      </c>
+      <c r="B65">
+        <v>1400</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="D65" s="1">
+        <f>SUM($C$2:C65)</f>
+        <v>31900</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>94</v>
+      </c>
+      <c r="B66">
+        <v>1450</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+      <c r="D66" s="1">
+        <f>SUM($C$2:C66)</f>
+        <v>33350</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>36250</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>95</v>
+      </c>
+      <c r="B67">
+        <v>1500</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C122" si="3">B67</f>
+        <v>1500</v>
+      </c>
+      <c r="D67" s="1">
+        <f>SUM($C$2:C67)</f>
+        <v>34850</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E122" si="4">B67*25</f>
+        <v>37500</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F122" si="5">E67-D67</f>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>96</v>
+      </c>
+      <c r="B68">
+        <v>1550</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>1550</v>
+      </c>
+      <c r="D68" s="1">
+        <f>SUM($C$2:C68)</f>
+        <v>36400</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>38750</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>97</v>
+      </c>
+      <c r="B69">
+        <v>1600</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="D69" s="1">
+        <f>SUM($C$2:C69)</f>
+        <v>38000</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>98</v>
+      </c>
+      <c r="B70">
+        <v>1700</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="D70" s="1">
+        <f>SUM($C$2:C70)</f>
+        <v>39700</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>42500</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>99</v>
+      </c>
+      <c r="B71">
+        <v>1750</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>1750</v>
+      </c>
+      <c r="D71" s="1">
+        <f>SUM($C$2:C71)</f>
+        <v>41450</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>43750</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>100</v>
+      </c>
+      <c r="B72">
+        <v>1850</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>1850</v>
+      </c>
+      <c r="D72" s="1">
+        <f>SUM($C$2:C72)</f>
+        <v>43300</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>46250</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>101</v>
+      </c>
+      <c r="B73">
+        <v>1900</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="D73" s="1">
+        <f>SUM($C$2:C73)</f>
+        <v>45200</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>47500</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>102</v>
+      </c>
+      <c r="B74">
+        <v>2000</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="D74" s="1">
+        <f>SUM($C$2:C74)</f>
+        <v>47200</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>103</v>
+      </c>
+      <c r="B75">
+        <v>2050</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="D75" s="1">
+        <f>SUM($C$2:C75)</f>
+        <v>49250</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>51250</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>104</v>
+      </c>
+      <c r="B76">
+        <v>2150</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>2150</v>
+      </c>
+      <c r="D76" s="1">
+        <f>SUM($C$2:C76)</f>
+        <v>51400</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>53750</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>105</v>
+      </c>
+      <c r="B77">
+        <v>2250</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>2250</v>
+      </c>
+      <c r="D77" s="1">
+        <f>SUM($C$2:C77)</f>
+        <v>53650</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>56250</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="5"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>106</v>
+      </c>
+      <c r="B78">
+        <v>2350</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>2350</v>
+      </c>
+      <c r="D78" s="1">
+        <f>SUM($C$2:C78)</f>
+        <v>56000</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>58750</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="5"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>107</v>
+      </c>
+      <c r="B79">
+        <v>2450</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>2450</v>
+      </c>
+      <c r="D79" s="1">
+        <f>SUM($C$2:C79)</f>
+        <v>58450</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>61250</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>108</v>
+      </c>
+      <c r="B80">
+        <v>2550</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>2550</v>
+      </c>
+      <c r="D80" s="1">
+        <f>SUM($C$2:C80)</f>
+        <v>61000</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>63750</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="5"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>109</v>
+      </c>
+      <c r="B81">
+        <v>2650</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>2650</v>
+      </c>
+      <c r="D81" s="1">
+        <f>SUM($C$2:C81)</f>
+        <v>63650</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>66250</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="5"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>110</v>
+      </c>
+      <c r="B82">
+        <v>2750</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>2750</v>
+      </c>
+      <c r="D82" s="1">
+        <f>SUM($C$2:C82)</f>
+        <v>66400</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>68750</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="5"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>111</v>
+      </c>
+      <c r="B83">
+        <v>2850</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>2850</v>
+      </c>
+      <c r="D83" s="1">
+        <f>SUM($C$2:C83)</f>
+        <v>69250</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>71250</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>112</v>
+      </c>
+      <c r="B84">
+        <v>3000</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="D84" s="1">
+        <f>SUM($C$2:C84)</f>
+        <v>72250</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>75000</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>113</v>
+      </c>
+      <c r="B85">
+        <v>3100</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>3100</v>
+      </c>
+      <c r="D85" s="1">
+        <f>SUM($C$2:C85)</f>
+        <v>75350</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>77500</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>114</v>
+      </c>
+      <c r="B86">
+        <v>3250</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>3250</v>
+      </c>
+      <c r="D86" s="1">
+        <f>SUM($C$2:C86)</f>
+        <v>78600</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>81250</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>115</v>
+      </c>
+      <c r="B87">
+        <v>3400</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>3400</v>
+      </c>
+      <c r="D87" s="1">
+        <f>SUM($C$2:C87)</f>
+        <v>82000</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>85000</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>116</v>
+      </c>
+      <c r="B88">
+        <v>3550</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>3550</v>
+      </c>
+      <c r="D88" s="1">
+        <f>SUM($C$2:C88)</f>
+        <v>85550</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>88750</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>117</v>
+      </c>
+      <c r="B89">
+        <v>3650</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>3650</v>
+      </c>
+      <c r="D89" s="1">
+        <f>SUM($C$2:C89)</f>
+        <v>89200</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>91250</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>118</v>
+      </c>
+      <c r="B90">
+        <v>3800</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>3800</v>
+      </c>
+      <c r="D90" s="1">
+        <f>SUM($C$2:C90)</f>
+        <v>93000</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>95000</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>119</v>
+      </c>
+      <c r="B91">
+        <v>4000</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="D91" s="1">
+        <f>SUM($C$2:C91)</f>
+        <v>97000</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>120</v>
+      </c>
+      <c r="B92">
+        <v>4150</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>4150</v>
+      </c>
+      <c r="D92" s="1">
+        <f>SUM($C$2:C92)</f>
+        <v>101150</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>103750</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>121</v>
+      </c>
+      <c r="B93">
+        <v>4300</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>4300</v>
+      </c>
+      <c r="D93" s="1">
+        <f>SUM($C$2:C93)</f>
+        <v>105450</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>107500</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>122</v>
+      </c>
+      <c r="B94">
+        <v>4500</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>4500</v>
+      </c>
+      <c r="D94" s="1">
+        <f>SUM($C$2:C94)</f>
+        <v>109950</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>112500</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>123</v>
+      </c>
+      <c r="B95">
+        <v>4700</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>4700</v>
+      </c>
+      <c r="D95" s="1">
+        <f>SUM($C$2:C95)</f>
+        <v>114650</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>117500</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>124</v>
+      </c>
+      <c r="B96">
+        <v>4900</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>4900</v>
+      </c>
+      <c r="D96" s="1">
+        <f>SUM($C$2:C96)</f>
+        <v>119550</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>122500</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>125</v>
+      </c>
+      <c r="B97">
+        <v>5100</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>5100</v>
+      </c>
+      <c r="D97" s="1">
+        <f>SUM($C$2:C97)</f>
+        <v>124650</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>127500</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>126</v>
+      </c>
+      <c r="B98">
+        <v>5300</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>5300</v>
+      </c>
+      <c r="D98" s="1">
+        <f>SUM($C$2:C98)</f>
+        <v>129950</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>132500</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>127</v>
+      </c>
+      <c r="B99">
+        <v>5500</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>5500</v>
+      </c>
+      <c r="D99" s="1">
+        <f>SUM($C$2:C99)</f>
+        <v>135450</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>137500</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>128</v>
+      </c>
+      <c r="B100">
+        <v>5750</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>5750</v>
+      </c>
+      <c r="D100" s="1">
+        <f>SUM($C$2:C100)</f>
+        <v>141200</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>143750</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>6000</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="D101" s="1">
+        <f>SUM($C$2:C101)</f>
+        <v>147200</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>150000</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>130</v>
+      </c>
+      <c r="B102">
+        <v>6250</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>6250</v>
+      </c>
+      <c r="D102" s="1">
+        <f>SUM($C$2:C102)</f>
+        <v>153450</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>131</v>
+      </c>
+      <c r="B103">
+        <v>6500</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>6500</v>
+      </c>
+      <c r="D103" s="1">
+        <f>SUM($C$2:C103)</f>
+        <v>159950</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
+        <v>162500</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="5"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>132</v>
+      </c>
+      <c r="B104">
+        <v>6750</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>6750</v>
+      </c>
+      <c r="D104" s="1">
+        <f>SUM($C$2:C104)</f>
+        <v>166700</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>168750</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>133</v>
+      </c>
+      <c r="B105">
+        <v>7050</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>7050</v>
+      </c>
+      <c r="D105" s="1">
+        <f>SUM($C$2:C105)</f>
+        <v>173750</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>176250</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="5"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>134</v>
+      </c>
+      <c r="B106">
+        <v>7350</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>7350</v>
+      </c>
+      <c r="D106" s="1">
+        <f>SUM($C$2:C106)</f>
+        <v>181100</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>183750</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="5"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>135</v>
+      </c>
+      <c r="B107">
+        <v>7650</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>7650</v>
+      </c>
+      <c r="D107" s="1">
+        <f>SUM($C$2:C107)</f>
+        <v>188750</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
+        <v>191250</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="5"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>136</v>
+      </c>
+      <c r="B108">
+        <v>7950</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>7950</v>
+      </c>
+      <c r="D108" s="1">
+        <f>SUM($C$2:C108)</f>
+        <v>196700</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>198750</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="5"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>137</v>
+      </c>
+      <c r="B109">
+        <v>8300</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>8300</v>
+      </c>
+      <c r="D109" s="1">
+        <f>SUM($C$2:C109)</f>
+        <v>205000</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>207500</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="5"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>138</v>
+      </c>
+      <c r="B110">
+        <v>8650</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>8650</v>
+      </c>
+      <c r="D110" s="1">
+        <f>SUM($C$2:C110)</f>
+        <v>213650</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
+        <v>216250</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="5"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>139</v>
+      </c>
+      <c r="B111">
+        <v>9000</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="D111" s="1">
+        <f>SUM($C$2:C111)</f>
+        <v>222650</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
+        <v>225000</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="5"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>140</v>
+      </c>
+      <c r="B112">
+        <v>9400</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>9400</v>
+      </c>
+      <c r="D112" s="1">
+        <f>SUM($C$2:C112)</f>
+        <v>232050</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
+        <v>235000</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="5"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>141</v>
+      </c>
+      <c r="B113">
+        <v>9800</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>9800</v>
+      </c>
+      <c r="D113" s="1">
+        <f>SUM($C$2:C113)</f>
+        <v>241850</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
+        <v>245000</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="5"/>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>142</v>
+      </c>
+      <c r="B114">
+        <v>10200</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>10200</v>
+      </c>
+      <c r="D114" s="1">
+        <f>SUM($C$2:C114)</f>
+        <v>252050</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="4"/>
+        <v>255000</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="5"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>143</v>
+      </c>
+      <c r="B115">
+        <v>10600</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>10600</v>
+      </c>
+      <c r="D115" s="1">
+        <f>SUM($C$2:C115)</f>
+        <v>262650</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="4"/>
+        <v>265000</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="5"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>144</v>
+      </c>
+      <c r="B116">
+        <v>11050</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>11050</v>
+      </c>
+      <c r="D116" s="1">
+        <f>SUM($C$2:C116)</f>
+        <v>273700</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="4"/>
+        <v>276250</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="5"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>145</v>
+      </c>
+      <c r="B117">
+        <v>11500</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>11500</v>
+      </c>
+      <c r="D117" s="1">
+        <f>SUM($C$2:C117)</f>
+        <v>285200</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="4"/>
+        <v>287500</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="5"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>146</v>
+      </c>
+      <c r="B118">
+        <v>12000</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="D118" s="1">
+        <f>SUM($C$2:C118)</f>
+        <v>297200</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="4"/>
+        <v>300000</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>147</v>
+      </c>
+      <c r="B119">
+        <v>12500</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>12500</v>
+      </c>
+      <c r="D119" s="1">
+        <f>SUM($C$2:C119)</f>
+        <v>309700</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="4"/>
+        <v>312500</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>148</v>
+      </c>
+      <c r="B120">
+        <v>13000</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>13000</v>
+      </c>
+      <c r="D120" s="1">
+        <f>SUM($C$2:C120)</f>
+        <v>322700</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="4"/>
+        <v>325000</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="5"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>149</v>
+      </c>
+      <c r="B121">
+        <v>13550</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>13550</v>
+      </c>
+      <c r="D121" s="1">
+        <f>SUM($C$2:C121)</f>
+        <v>336250</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="4"/>
+        <v>338750</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="5"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>150</v>
+      </c>
+      <c r="B122">
+        <v>14100</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>14100</v>
+      </c>
+      <c r="D122" s="1">
+        <f>SUM($C$2:C122)</f>
+        <v>350350</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="4"/>
+        <v>352500</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="5"/>
+        <v>2150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A873C-7C48-476D-9E21-58D8DD43211F}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
@@ -15561,12 +18519,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76277A36-1C7D-4579-B642-BFA48C7F2592}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22669,7 +25627,7 @@
         <v>4300</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F29" si="37">SUM(B24:E24)</f>
+        <f t="shared" ref="F24:F26" si="37">SUM(B24:E24)</f>
         <v>44350</v>
       </c>
       <c r="G24" s="1">
@@ -22677,19 +25635,19 @@
         <v>193050</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" ref="H24:H29" si="38">_xlfn.CONCAT(P24, "(", Q24,")")</f>
+        <f t="shared" ref="H24:H26" si="38">_xlfn.CONCAT(P24, "(", Q24,")")</f>
         <v>194000(950)</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" ref="I24:I29" si="39">_xlfn.CONCAT(R24, "(", S24,")")</f>
+        <f t="shared" ref="I24:I26" si="39">_xlfn.CONCAT(R24, "(", S24,")")</f>
         <v>193500(450)</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ref="J24:J29" si="40">_xlfn.CONCAT(T24, "(", U24,")")</f>
+        <f t="shared" ref="J24:J26" si="40">_xlfn.CONCAT(T24, "(", U24,")")</f>
         <v>193750(700)</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" ref="K24:K29" si="41">_xlfn.CONCAT(V24, "(", W24,")")</f>
+        <f t="shared" ref="K24:K26" si="41">_xlfn.CONCAT(V24, "(", W24,")")</f>
         <v>193500(450)</v>
       </c>
       <c r="P24">
@@ -26187,7 +29145,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B61"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26253,7 +29211,7 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C64" si="0">B3</f>
+        <f t="shared" ref="C3:C61" si="0">B3</f>
         <v>100</v>
       </c>
       <c r="D3" s="1">
@@ -26261,11 +29219,11 @@
         <v>200</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E64" si="1">B3*10</f>
+        <f t="shared" ref="E3:E61" si="1">B3*10</f>
         <v>1000</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F64" si="2">E3-D3</f>
+        <f t="shared" ref="F3:F61" si="2">E3-D3</f>
         <v>800</v>
       </c>
       <c r="H3" t="s">
@@ -27692,7 +30650,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bean - lote.xlsx
+++ b/bean - lote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Nimo Lottery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Ryan\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B1C9F-7D3E-4D1F-867F-2661353297A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F08AA-F332-4EA5-8AAC-5A97327A00BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="28830" yWindow="-45" windowWidth="9465" windowHeight="15510" firstSheet="15" activeTab="15" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="Box x15 Win 1k (use)" sheetId="13" r:id="rId10"/>
     <sheet name="Box x25" sheetId="9" r:id="rId11"/>
     <sheet name="Box x25 Win 1k" sheetId="11" r:id="rId12"/>
-    <sheet name="Box x25 Win 2k (use)" sheetId="16" r:id="rId13"/>
-    <sheet name="Box x45" sheetId="10" r:id="rId14"/>
-    <sheet name="Box x45 Win 4k (use)" sheetId="15" r:id="rId15"/>
+    <sheet name="Box x25 Win 2k" sheetId="16" r:id="rId13"/>
+    <sheet name="Box x25 Win 4k (use)" sheetId="17" r:id="rId14"/>
+    <sheet name="Box x45" sheetId="10" r:id="rId15"/>
+    <sheet name="Box x45 Win 4k (use)" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="30">
   <si>
     <t>x10</t>
   </si>
@@ -10087,7 +10088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79893292-557B-4253-8167-4421586F24A1}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B122" sqref="A2:B122"/>
     </sheetView>
   </sheetViews>
@@ -13041,6 +13042,2963 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1588276-3D0C-41D5-95FB-CB2002F44894}">
+  <dimension ref="A1:I122"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B122" sqref="A2:B122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>200</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM($C$2:C2)</f>
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <f>B2*25</f>
+        <v>5000</v>
+      </c>
+      <c r="F2">
+        <f>E2-D2</f>
+        <v>4800</v>
+      </c>
+      <c r="H2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">B3</f>
+        <v>200</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM($C$2:C3)</f>
+        <v>400</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">B3*25</f>
+        <v>5000</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">E3-D3</f>
+        <v>4600</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM($C$2:C4)</f>
+        <v>600</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SUM($C$2:C5)</f>
+        <v>800</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM($C$2:C6)</f>
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUM($C$2:C7)</f>
+        <v>1250</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>250</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM($C$2:C8)</f>
+        <v>1500</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>250</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUM($C$2:C9)</f>
+        <v>1750</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>250</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM($C$2:C10)</f>
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>250</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM($C$2:C11)</f>
+        <v>2250</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D12" s="1">
+        <f>SUM($C$2:C12)</f>
+        <v>2550</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUM($C$2:C13)</f>
+        <v>2850</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SUM($C$2:C14)</f>
+        <v>3150</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D15" s="1">
+        <f>SUM($C$2:C15)</f>
+        <v>3450</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>350</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM($C$2:C16)</f>
+        <v>3800</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>8750</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>350</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="D17" s="1">
+        <f>SUM($C$2:C17)</f>
+        <v>4150</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>8750</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>350</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUM($C$2:C18)</f>
+        <v>4500</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>8750</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>400</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D19" s="1">
+        <f>SUM($C$2:C19)</f>
+        <v>4900</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>400</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D20" s="1">
+        <f>SUM($C$2:C20)</f>
+        <v>5300</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>400</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D21" s="1">
+        <f>SUM($C$2:C21)</f>
+        <v>5700</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>450</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="D22" s="1">
+        <f>SUM($C$2:C22)</f>
+        <v>6150</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>11250</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>450</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="D23" s="1">
+        <f>SUM($C$2:C23)</f>
+        <v>6600</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>11250</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>450</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="D24" s="1">
+        <f>SUM($C$2:C24)</f>
+        <v>7050</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>11250</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>500</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D25" s="1">
+        <f>SUM($C$2:C25)</f>
+        <v>7550</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>500</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM($C$2:C26)</f>
+        <v>8050</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>550</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM($C$2:C27)</f>
+        <v>8600</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>13750</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>550</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="D28" s="1">
+        <f>SUM($C$2:C28)</f>
+        <v>9150</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>13750</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>550</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="D29" s="1">
+        <f>SUM($C$2:C29)</f>
+        <v>9700</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>13750</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>600</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUM($C$2:C30)</f>
+        <v>10300</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>600</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D31" s="1">
+        <f>SUM($C$2:C31)</f>
+        <v>10900</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>650</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="D32" s="1">
+        <f>SUM($C$2:C32)</f>
+        <v>11550</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>16250</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>650</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="D33" s="1">
+        <f>SUM($C$2:C33)</f>
+        <v>12200</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>16250</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>700</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D34" s="1">
+        <f>SUM($C$2:C34)</f>
+        <v>12900</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>17500</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>750</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="D35" s="1">
+        <f>SUM($C$2:C35)</f>
+        <v>13650</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>18750</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>750</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="D36" s="1">
+        <f>SUM($C$2:C36)</f>
+        <v>14400</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>18750</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>65</v>
+      </c>
+      <c r="B37">
+        <v>800</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D37" s="1">
+        <f>SUM($C$2:C37)</f>
+        <v>15200</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>66</v>
+      </c>
+      <c r="B38">
+        <v>800</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D38" s="1">
+        <f>SUM($C$2:C38)</f>
+        <v>16000</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <v>850</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="D39" s="1">
+        <f>SUM($C$2:C39)</f>
+        <v>16850</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>21250</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>68</v>
+      </c>
+      <c r="B40">
+        <v>900</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D40" s="1">
+        <f>SUM($C$2:C40)</f>
+        <v>17750</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <v>950</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="D41" s="1">
+        <f>SUM($C$2:C41)</f>
+        <v>18700</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>23750</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>70</v>
+      </c>
+      <c r="B42">
+        <v>950</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="D42" s="1">
+        <f>SUM($C$2:C42)</f>
+        <v>19650</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>23750</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>1000</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D43" s="1">
+        <f>SUM($C$2:C43)</f>
+        <v>20650</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <v>1050</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="D44" s="1">
+        <f>SUM($C$2:C44)</f>
+        <v>21700</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>26250</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <v>1100</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="D45" s="1">
+        <f>SUM($C$2:C45)</f>
+        <v>22800</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>27500</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>1150</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="D46" s="1">
+        <f>SUM($C$2:C46)</f>
+        <v>23950</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>28750</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>1200</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="D47" s="1">
+        <f>SUM($C$2:C47)</f>
+        <v>25150</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>1250</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="D48" s="1">
+        <f>SUM($C$2:C48)</f>
+        <v>26400</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>31250</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>1300</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="D49" s="1">
+        <f>SUM($C$2:C49)</f>
+        <v>27700</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>78</v>
+      </c>
+      <c r="B50">
+        <v>1350</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="D50" s="1">
+        <f>SUM($C$2:C50)</f>
+        <v>29050</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>33750</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>79</v>
+      </c>
+      <c r="B51">
+        <v>1400</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="D51" s="1">
+        <f>SUM($C$2:C51)</f>
+        <v>30450</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>1450</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+      <c r="D52" s="1">
+        <f>SUM($C$2:C52)</f>
+        <v>31900</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>36250</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>81</v>
+      </c>
+      <c r="B53">
+        <v>1500</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="D53" s="1">
+        <f>SUM($C$2:C53)</f>
+        <v>33400</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>37500</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>82</v>
+      </c>
+      <c r="B54">
+        <v>1600</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="D54" s="1">
+        <f>SUM($C$2:C54)</f>
+        <v>35000</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>83</v>
+      </c>
+      <c r="B55">
+        <v>1650</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+      <c r="D55" s="1">
+        <f>SUM($C$2:C55)</f>
+        <v>36650</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>41250</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>84</v>
+      </c>
+      <c r="B56">
+        <v>1700</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="D56" s="1">
+        <f>SUM($C$2:C56)</f>
+        <v>38350</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>42500</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>85</v>
+      </c>
+      <c r="B57">
+        <v>1800</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="D57" s="1">
+        <f>SUM($C$2:C57)</f>
+        <v>40150</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <v>1850</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="D58" s="1">
+        <f>SUM($C$2:C58)</f>
+        <v>42000</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>46250</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>87</v>
+      </c>
+      <c r="B59">
+        <v>1950</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
+      <c r="D59" s="1">
+        <f>SUM($C$2:C59)</f>
+        <v>43950</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>48750</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>88</v>
+      </c>
+      <c r="B60">
+        <v>2000</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="D60" s="1">
+        <f>SUM($C$2:C60)</f>
+        <v>45950</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>89</v>
+      </c>
+      <c r="B61">
+        <v>2100</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="D61" s="1">
+        <f>SUM($C$2:C61)</f>
+        <v>48050</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>52500</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>90</v>
+      </c>
+      <c r="B62">
+        <v>2200</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="D62" s="1">
+        <f>SUM($C$2:C62)</f>
+        <v>50250</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>55000</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>91</v>
+      </c>
+      <c r="B63">
+        <v>2300</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="D63" s="1">
+        <f>SUM($C$2:C63)</f>
+        <v>52550</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>57500</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>92</v>
+      </c>
+      <c r="B64">
+        <v>2400</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="D64" s="1">
+        <f>SUM($C$2:C64)</f>
+        <v>54950</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>93</v>
+      </c>
+      <c r="B65">
+        <v>2500</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="D65" s="1">
+        <f>SUM($C$2:C65)</f>
+        <v>57450</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>62500</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>94</v>
+      </c>
+      <c r="B66">
+        <v>2600</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="D66" s="1">
+        <f>SUM($C$2:C66)</f>
+        <v>60050</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>65000</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>95</v>
+      </c>
+      <c r="B67">
+        <v>2700</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C122" si="3">B67</f>
+        <v>2700</v>
+      </c>
+      <c r="D67" s="1">
+        <f>SUM($C$2:C67)</f>
+        <v>62750</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E122" si="4">B67*25</f>
+        <v>67500</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F122" si="5">E67-D67</f>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>96</v>
+      </c>
+      <c r="B68">
+        <v>2800</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="D68" s="1">
+        <f>SUM($C$2:C68)</f>
+        <v>65550</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>70000</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>97</v>
+      </c>
+      <c r="B69">
+        <v>2900</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>2900</v>
+      </c>
+      <c r="D69" s="1">
+        <f>SUM($C$2:C69)</f>
+        <v>68450</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>72500</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>98</v>
+      </c>
+      <c r="B70">
+        <v>3050</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>3050</v>
+      </c>
+      <c r="D70" s="1">
+        <f>SUM($C$2:C70)</f>
+        <v>71500</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>76250</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>99</v>
+      </c>
+      <c r="B71">
+        <v>3150</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>3150</v>
+      </c>
+      <c r="D71" s="1">
+        <f>SUM($C$2:C71)</f>
+        <v>74650</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>78750</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>100</v>
+      </c>
+      <c r="B72">
+        <v>3300</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+      <c r="D72" s="1">
+        <f>SUM($C$2:C72)</f>
+        <v>77950</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>82500</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>101</v>
+      </c>
+      <c r="B73">
+        <v>3450</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>3450</v>
+      </c>
+      <c r="D73" s="1">
+        <f>SUM($C$2:C73)</f>
+        <v>81400</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>86250</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>102</v>
+      </c>
+      <c r="B74">
+        <v>3600</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="D74" s="1">
+        <f>SUM($C$2:C74)</f>
+        <v>85000</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>103</v>
+      </c>
+      <c r="B75">
+        <v>3750</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>3750</v>
+      </c>
+      <c r="D75" s="1">
+        <f>SUM($C$2:C75)</f>
+        <v>88750</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>93750</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>104</v>
+      </c>
+      <c r="B76">
+        <v>3900</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>3900</v>
+      </c>
+      <c r="D76" s="1">
+        <f>SUM($C$2:C76)</f>
+        <v>92650</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>97500</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>105</v>
+      </c>
+      <c r="B77">
+        <v>4050</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>4050</v>
+      </c>
+      <c r="D77" s="1">
+        <f>SUM($C$2:C77)</f>
+        <v>96700</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>101250</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="5"/>
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>106</v>
+      </c>
+      <c r="B78">
+        <v>4200</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>4200</v>
+      </c>
+      <c r="D78" s="1">
+        <f>SUM($C$2:C78)</f>
+        <v>100900</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="5"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>107</v>
+      </c>
+      <c r="B79">
+        <v>4400</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>4400</v>
+      </c>
+      <c r="D79" s="1">
+        <f>SUM($C$2:C79)</f>
+        <v>105300</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>110000</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="5"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>108</v>
+      </c>
+      <c r="B80">
+        <v>4600</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>4600</v>
+      </c>
+      <c r="D80" s="1">
+        <f>SUM($C$2:C80)</f>
+        <v>109900</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>115000</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="5"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>109</v>
+      </c>
+      <c r="B81">
+        <v>4750</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>4750</v>
+      </c>
+      <c r="D81" s="1">
+        <f>SUM($C$2:C81)</f>
+        <v>114650</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>118750</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="5"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>110</v>
+      </c>
+      <c r="B82">
+        <v>4950</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>4950</v>
+      </c>
+      <c r="D82" s="1">
+        <f>SUM($C$2:C82)</f>
+        <v>119600</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>123750</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="5"/>
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>111</v>
+      </c>
+      <c r="B83">
+        <v>5150</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>5150</v>
+      </c>
+      <c r="D83" s="1">
+        <f>SUM($C$2:C83)</f>
+        <v>124750</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>128750</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>112</v>
+      </c>
+      <c r="B84">
+        <v>5400</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+      <c r="D84" s="1">
+        <f>SUM($C$2:C84)</f>
+        <v>130150</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>113</v>
+      </c>
+      <c r="B85">
+        <v>5600</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>5600</v>
+      </c>
+      <c r="D85" s="1">
+        <f>SUM($C$2:C85)</f>
+        <v>135750</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>140000</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>114</v>
+      </c>
+      <c r="B86">
+        <v>5850</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>5850</v>
+      </c>
+      <c r="D86" s="1">
+        <f>SUM($C$2:C86)</f>
+        <v>141600</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>146250</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>115</v>
+      </c>
+      <c r="B87">
+        <v>6100</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>6100</v>
+      </c>
+      <c r="D87" s="1">
+        <f>SUM($C$2:C87)</f>
+        <v>147700</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>152500</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>116</v>
+      </c>
+      <c r="B88">
+        <v>6350</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>6350</v>
+      </c>
+      <c r="D88" s="1">
+        <f>SUM($C$2:C88)</f>
+        <v>154050</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>158750</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>117</v>
+      </c>
+      <c r="B89">
+        <v>6600</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>6600</v>
+      </c>
+      <c r="D89" s="1">
+        <f>SUM($C$2:C89)</f>
+        <v>160650</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>165000</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>118</v>
+      </c>
+      <c r="B90">
+        <v>6900</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>6900</v>
+      </c>
+      <c r="D90" s="1">
+        <f>SUM($C$2:C90)</f>
+        <v>167550</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>172500</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>119</v>
+      </c>
+      <c r="B91">
+        <v>7200</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+      <c r="D91" s="1">
+        <f>SUM($C$2:C91)</f>
+        <v>174750</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>180000</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>120</v>
+      </c>
+      <c r="B92">
+        <v>7450</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>7450</v>
+      </c>
+      <c r="D92" s="1">
+        <f>SUM($C$2:C92)</f>
+        <v>182200</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>186250</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>121</v>
+      </c>
+      <c r="B93">
+        <v>7800</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+      <c r="D93" s="1">
+        <f>SUM($C$2:C93)</f>
+        <v>190000</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>195000</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>122</v>
+      </c>
+      <c r="B94">
+        <v>8100</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>8100</v>
+      </c>
+      <c r="D94" s="1">
+        <f>SUM($C$2:C94)</f>
+        <v>198100</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>202500</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>123</v>
+      </c>
+      <c r="B95">
+        <v>8450</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>8450</v>
+      </c>
+      <c r="D95" s="1">
+        <f>SUM($C$2:C95)</f>
+        <v>206550</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>211250</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>124</v>
+      </c>
+      <c r="B96">
+        <v>8800</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>8800</v>
+      </c>
+      <c r="D96" s="1">
+        <f>SUM($C$2:C96)</f>
+        <v>215350</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>220000</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>125</v>
+      </c>
+      <c r="B97">
+        <v>9150</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>9150</v>
+      </c>
+      <c r="D97" s="1">
+        <f>SUM($C$2:C97)</f>
+        <v>224500</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>228750</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>126</v>
+      </c>
+      <c r="B98">
+        <v>9550</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>9550</v>
+      </c>
+      <c r="D98" s="1">
+        <f>SUM($C$2:C98)</f>
+        <v>234050</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>238750</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>127</v>
+      </c>
+      <c r="B99">
+        <v>9950</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>9950</v>
+      </c>
+      <c r="D99" s="1">
+        <f>SUM($C$2:C99)</f>
+        <v>244000</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>248750</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>128</v>
+      </c>
+      <c r="B100">
+        <v>10350</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>10350</v>
+      </c>
+      <c r="D100" s="1">
+        <f>SUM($C$2:C100)</f>
+        <v>254350</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>258750</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>10800</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>10800</v>
+      </c>
+      <c r="D101" s="1">
+        <f>SUM($C$2:C101)</f>
+        <v>265150</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>270000</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>130</v>
+      </c>
+      <c r="B102">
+        <v>11250</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>11250</v>
+      </c>
+      <c r="D102" s="1">
+        <f>SUM($C$2:C102)</f>
+        <v>276400</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>281250</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>131</v>
+      </c>
+      <c r="B103">
+        <v>11700</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>11700</v>
+      </c>
+      <c r="D103" s="1">
+        <f>SUM($C$2:C103)</f>
+        <v>288100</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
+        <v>292500</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="5"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>132</v>
+      </c>
+      <c r="B104">
+        <v>12200</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>12200</v>
+      </c>
+      <c r="D104" s="1">
+        <f>SUM($C$2:C104)</f>
+        <v>300300</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>305000</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>133</v>
+      </c>
+      <c r="B105">
+        <v>12700</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>12700</v>
+      </c>
+      <c r="D105" s="1">
+        <f>SUM($C$2:C105)</f>
+        <v>313000</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>317500</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="5"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>134</v>
+      </c>
+      <c r="B106">
+        <v>13250</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>13250</v>
+      </c>
+      <c r="D106" s="1">
+        <f>SUM($C$2:C106)</f>
+        <v>326250</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>331250</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>135</v>
+      </c>
+      <c r="B107">
+        <v>13800</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>13800</v>
+      </c>
+      <c r="D107" s="1">
+        <f>SUM($C$2:C107)</f>
+        <v>340050</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
+        <v>345000</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="5"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>136</v>
+      </c>
+      <c r="B108">
+        <v>14350</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>14350</v>
+      </c>
+      <c r="D108" s="1">
+        <f>SUM($C$2:C108)</f>
+        <v>354400</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>358750</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="5"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>137</v>
+      </c>
+      <c r="B109">
+        <v>14950</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>14950</v>
+      </c>
+      <c r="D109" s="1">
+        <f>SUM($C$2:C109)</f>
+        <v>369350</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>373750</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="5"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>138</v>
+      </c>
+      <c r="B110">
+        <v>15600</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>15600</v>
+      </c>
+      <c r="D110" s="1">
+        <f>SUM($C$2:C110)</f>
+        <v>384950</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
+        <v>390000</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="5"/>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>139</v>
+      </c>
+      <c r="B111">
+        <v>16250</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>16250</v>
+      </c>
+      <c r="D111" s="1">
+        <f>SUM($C$2:C111)</f>
+        <v>401200</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
+        <v>406250</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="5"/>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>140</v>
+      </c>
+      <c r="B112">
+        <v>16900</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>16900</v>
+      </c>
+      <c r="D112" s="1">
+        <f>SUM($C$2:C112)</f>
+        <v>418100</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
+        <v>422500</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="5"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>141</v>
+      </c>
+      <c r="B113">
+        <v>17600</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>17600</v>
+      </c>
+      <c r="D113" s="1">
+        <f>SUM($C$2:C113)</f>
+        <v>435700</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
+        <v>440000</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="5"/>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>142</v>
+      </c>
+      <c r="B114">
+        <v>18350</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>18350</v>
+      </c>
+      <c r="D114" s="1">
+        <f>SUM($C$2:C114)</f>
+        <v>454050</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="4"/>
+        <v>458750</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="5"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>143</v>
+      </c>
+      <c r="B115">
+        <v>19100</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>19100</v>
+      </c>
+      <c r="D115" s="1">
+        <f>SUM($C$2:C115)</f>
+        <v>473150</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="4"/>
+        <v>477500</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="5"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>144</v>
+      </c>
+      <c r="B116">
+        <v>19900</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>19900</v>
+      </c>
+      <c r="D116" s="1">
+        <f>SUM($C$2:C116)</f>
+        <v>493050</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="4"/>
+        <v>497500</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="5"/>
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>145</v>
+      </c>
+      <c r="B117">
+        <v>20750</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>20750</v>
+      </c>
+      <c r="D117" s="1">
+        <f>SUM($C$2:C117)</f>
+        <v>513800</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="4"/>
+        <v>518750</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="5"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>146</v>
+      </c>
+      <c r="B118">
+        <v>21500</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>21500</v>
+      </c>
+      <c r="D118" s="1">
+        <f>SUM($C$2:C118)</f>
+        <v>535300</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="4"/>
+        <v>537500</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="5"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>147</v>
+      </c>
+      <c r="B119">
+        <v>22500</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>22500</v>
+      </c>
+      <c r="D119" s="1">
+        <f>SUM($C$2:C119)</f>
+        <v>557800</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="4"/>
+        <v>562500</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="5"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>148</v>
+      </c>
+      <c r="B120">
+        <v>23450</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>23450</v>
+      </c>
+      <c r="D120" s="1">
+        <f>SUM($C$2:C120)</f>
+        <v>581250</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="4"/>
+        <v>586250</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>149</v>
+      </c>
+      <c r="B121">
+        <v>24400</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>24400</v>
+      </c>
+      <c r="D121" s="1">
+        <f>SUM($C$2:C121)</f>
+        <v>605650</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="4"/>
+        <v>610000</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="5"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>150</v>
+      </c>
+      <c r="B122">
+        <v>25450</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>25450</v>
+      </c>
+      <c r="D122" s="1">
+        <f>SUM($C$2:C122)</f>
+        <v>631100</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="4"/>
+        <v>636250</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="5"/>
+        <v>5150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A873C-7C48-476D-9E21-58D8DD43211F}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
@@ -18519,12 +21477,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76277A36-1C7D-4579-B642-BFA48C7F2592}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="H222" sqref="H222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18557,7 +21515,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -18584,7 +21542,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -18614,7 +21572,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -18644,7 +21602,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -18668,7 +21626,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -18692,7 +21650,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>150</v>
@@ -18716,7 +21674,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>150</v>
@@ -18740,7 +21698,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>150</v>
@@ -18764,7 +21722,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -18788,7 +21746,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>150</v>
@@ -18812,7 +21770,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>150</v>
@@ -18836,7 +21794,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>150</v>
@@ -18860,7 +21818,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>150</v>
@@ -18884,7 +21842,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>150</v>
@@ -18908,7 +21866,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>150</v>
@@ -18932,7 +21890,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>150</v>
@@ -18956,7 +21914,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>150</v>
@@ -18980,7 +21938,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>150</v>
@@ -19004,7 +21962,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>150</v>
@@ -19028,7 +21986,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>150</v>
@@ -19052,7 +22010,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -19076,7 +22034,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -19100,7 +22058,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -19124,7 +22082,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -19148,7 +22106,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -19172,7 +22130,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -19196,7 +22154,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -19220,7 +22178,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -19244,7 +22202,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -19268,7 +22226,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -19292,7 +22250,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -19316,7 +22274,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B33">
         <v>250</v>
@@ -19340,7 +22298,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="B34">
         <v>250</v>
@@ -19364,7 +22322,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B35">
         <v>250</v>
@@ -19388,7 +22346,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B36">
         <v>250</v>
@@ -19412,7 +22370,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B37">
         <v>250</v>
@@ -19436,7 +22394,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B38">
         <v>250</v>
@@ -19460,7 +22418,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B39">
         <v>250</v>
@@ -19484,7 +22442,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B40">
         <v>250</v>
@@ -19508,7 +22466,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B41">
         <v>250</v>
@@ -19532,7 +22490,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B42">
         <v>300</v>
@@ -19556,7 +22514,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B43">
         <v>300</v>
@@ -19580,7 +22538,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B44">
         <v>300</v>
@@ -19604,7 +22562,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B45">
         <v>300</v>
@@ -19628,7 +22586,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B46">
         <v>300</v>
@@ -19652,7 +22610,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B47">
         <v>300</v>
@@ -19676,7 +22634,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B48">
         <v>300</v>
@@ -19700,7 +22658,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B49">
         <v>350</v>
@@ -19724,7 +22682,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B50">
         <v>350</v>
@@ -19748,7 +22706,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B51">
         <v>350</v>
@@ -19772,7 +22730,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B52">
         <v>350</v>
@@ -19796,7 +22754,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B53">
         <v>350</v>
@@ -19820,7 +22778,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B54">
         <v>350</v>
@@ -19844,7 +22802,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B55">
         <v>350</v>
@@ -19868,7 +22826,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B56">
         <v>400</v>
@@ -19892,7 +22850,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B57">
         <v>400</v>
@@ -19916,7 +22874,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B58">
         <v>400</v>
@@ -19940,7 +22898,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B59">
         <v>400</v>
@@ -19964,7 +22922,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B60">
         <v>400</v>
@@ -19988,7 +22946,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B61">
         <v>450</v>
@@ -20012,7 +22970,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B62">
         <v>450</v>
@@ -20036,7 +22994,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B63">
         <v>450</v>
@@ -20060,7 +23018,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B64">
         <v>450</v>
@@ -20084,7 +23042,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B65">
         <v>450</v>
@@ -20108,7 +23066,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B66">
         <v>500</v>
@@ -20132,7 +23090,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B67">
         <v>500</v>
@@ -20156,7 +23114,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B68">
         <v>500</v>
@@ -20180,7 +23138,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B69">
         <v>500</v>
@@ -20204,7 +23162,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B70">
         <v>500</v>
@@ -20228,7 +23186,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B71">
         <v>550</v>
@@ -20252,7 +23210,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B72">
         <v>550</v>
@@ -20276,7 +23234,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B73">
         <v>550</v>
@@ -20300,7 +23258,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B74">
         <v>550</v>
@@ -20324,7 +23282,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B75">
         <v>600</v>
@@ -20348,7 +23306,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B76">
         <v>600</v>
@@ -20372,7 +23330,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B77">
         <v>600</v>
@@ -20396,7 +23354,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B78">
         <v>650</v>
@@ -20420,7 +23378,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B79">
         <v>650</v>
@@ -20444,7 +23402,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B80">
         <v>650</v>
@@ -20468,7 +23426,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B81">
         <v>650</v>
@@ -20492,7 +23450,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B82">
         <v>700</v>
@@ -20516,7 +23474,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B83">
         <v>700</v>
@@ -20540,7 +23498,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="B84">
         <v>700</v>
@@ -20564,7 +23522,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B85">
         <v>750</v>
@@ -20588,7 +23546,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B86">
         <v>750</v>
@@ -20612,7 +23570,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B87">
         <v>750</v>
@@ -20636,7 +23594,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B88">
         <v>800</v>
@@ -20660,7 +23618,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B89">
         <v>800</v>
@@ -20684,7 +23642,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B90">
         <v>800</v>
@@ -20708,7 +23666,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B91">
         <v>850</v>
@@ -20732,7 +23690,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B92">
         <v>850</v>
@@ -20756,7 +23714,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B93">
         <v>900</v>
@@ -20780,7 +23738,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B94">
         <v>900</v>
@@ -20804,7 +23762,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B95">
         <v>900</v>
@@ -20828,7 +23786,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B96">
         <v>950</v>
@@ -20852,7 +23810,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B97">
         <v>950</v>
@@ -20876,7 +23834,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B98">
         <v>1000</v>
@@ -20900,7 +23858,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B99">
         <v>1000</v>
@@ -20924,7 +23882,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B100">
         <v>1050</v>
@@ -20948,7 +23906,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B101">
         <v>1050</v>
@@ -20972,7 +23930,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B102">
         <v>1100</v>
@@ -20996,7 +23954,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B103">
         <v>1100</v>
@@ -21020,7 +23978,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B104">
         <v>1150</v>
@@ -21044,7 +24002,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B105">
         <v>1150</v>
@@ -21068,7 +24026,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B106">
         <v>1200</v>
@@ -21092,7 +24050,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B107">
         <v>1200</v>
@@ -21116,7 +24074,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B108">
         <v>1250</v>
@@ -21140,7 +24098,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B109">
         <v>1250</v>
@@ -21164,7 +24122,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B110">
         <v>1300</v>
@@ -21188,7 +24146,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="B111">
         <v>1300</v>
@@ -21212,7 +24170,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B112">
         <v>1350</v>
@@ -21236,7 +24194,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="B113">
         <v>1400</v>
@@ -21260,7 +24218,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B114">
         <v>1400</v>
@@ -21284,7 +24242,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B115">
         <v>1450</v>
@@ -21308,7 +24266,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="B116">
         <v>1500</v>
@@ -21332,7 +24290,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B117">
         <v>1500</v>
@@ -21356,7 +24314,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="B118">
         <v>1550</v>
@@ -21380,7 +24338,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B119">
         <v>1600</v>
@@ -21404,7 +24362,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B120">
         <v>1600</v>
@@ -21428,7 +24386,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B121">
         <v>1650</v>
@@ -21452,7 +24410,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B122">
         <v>1700</v>
@@ -21476,7 +24434,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="B123">
         <v>1750</v>
@@ -21500,7 +24458,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B124">
         <v>1750</v>
@@ -21524,7 +24482,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B125">
         <v>1800</v>
@@ -21548,7 +24506,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="B126">
         <v>1850</v>
@@ -21572,7 +24530,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="B127">
         <v>1900</v>
@@ -21596,7 +24554,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B128">
         <v>1950</v>
@@ -21620,7 +24578,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="B129">
         <v>2000</v>
@@ -21644,7 +24602,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B130">
         <v>2000</v>
@@ -21668,7 +24626,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B131">
         <v>2050</v>
@@ -21692,7 +24650,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B132">
         <v>2100</v>
@@ -21716,7 +24674,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B133">
         <v>2150</v>
@@ -21740,7 +24698,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B134">
         <v>2200</v>
@@ -21764,7 +24722,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B135">
         <v>2250</v>
@@ -21788,7 +24746,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B136">
         <v>2300</v>
@@ -21812,7 +24770,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B137">
         <v>2350</v>
@@ -21836,7 +24794,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B138">
         <v>2400</v>
@@ -21860,7 +24818,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="B139">
         <v>2450</v>
@@ -21884,7 +24842,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B140">
         <v>2550</v>
@@ -21908,7 +24866,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="B141">
         <v>2600</v>
@@ -21932,7 +24890,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="B142">
         <v>2650</v>
@@ -21956,7 +24914,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="B143">
         <v>2700</v>
@@ -21980,7 +24938,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="B144">
         <v>2750</v>
@@ -22004,7 +24962,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B145">
         <v>2850</v>
@@ -22028,7 +24986,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B146">
         <v>2900</v>
@@ -22052,7 +25010,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B147">
         <v>2950</v>
@@ -22076,7 +25034,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B148">
         <v>3050</v>
@@ -22100,7 +25058,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B149">
         <v>3100</v>
@@ -22124,7 +25082,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B150">
         <v>3150</v>
@@ -22148,7 +25106,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B151">
         <v>3250</v>
@@ -22172,7 +25130,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B152">
         <v>3300</v>
@@ -22196,7 +25154,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B153">
         <v>3400</v>
@@ -22220,7 +25178,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B154">
         <v>3450</v>
@@ -22244,7 +25202,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B155">
         <v>3550</v>
@@ -22268,7 +25226,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B156">
         <v>3600</v>
@@ -22292,7 +25250,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B157">
         <v>3700</v>
@@ -22316,7 +25274,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B158">
         <v>3800</v>
@@ -22340,7 +25298,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B159">
         <v>3900</v>
@@ -22364,7 +25322,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="B160">
         <v>3950</v>
@@ -22388,7 +25346,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="B161">
         <v>4050</v>
@@ -22412,7 +25370,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B162">
         <v>4150</v>
@@ -22436,7 +25394,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B163">
         <v>4250</v>
@@ -22460,7 +25418,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B164">
         <v>4350</v>
@@ -22484,7 +25442,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B165">
         <v>4450</v>
@@ -22508,7 +25466,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B166">
         <v>4550</v>
@@ -22532,7 +25490,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="B167">
         <v>4650</v>
@@ -22556,7 +25514,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B168">
         <v>4750</v>
@@ -22580,7 +25538,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="B169">
         <v>4850</v>
@@ -22604,7 +25562,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B170">
         <v>4950</v>
@@ -22628,7 +25586,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="B171">
         <v>5100</v>
@@ -22652,7 +25610,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B172">
         <v>5200</v>
@@ -22676,7 +25634,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B173">
         <v>5300</v>
@@ -22700,7 +25658,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="B174">
         <v>5450</v>
@@ -22724,7 +25682,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="B175">
         <v>5550</v>
@@ -22748,7 +25706,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="B176">
         <v>5700</v>
@@ -22772,7 +25730,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B177">
         <v>5800</v>
@@ -22796,7 +25754,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B178">
         <v>5950</v>
@@ -22820,7 +25778,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B179">
         <v>6100</v>
@@ -22844,7 +25802,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B180">
         <v>6200</v>
@@ -22868,7 +25826,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="B181">
         <v>6350</v>
@@ -22892,7 +25850,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="B182">
         <v>6500</v>
@@ -22916,7 +25874,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="B183">
         <v>6650</v>
@@ -22940,7 +25898,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="B184">
         <v>6800</v>
@@ -22964,7 +25922,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="B185">
         <v>6950</v>
@@ -22988,7 +25946,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="B186">
         <v>7100</v>
@@ -23012,7 +25970,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="B187">
         <v>7300</v>
@@ -23036,7 +25994,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B188">
         <v>7450</v>
@@ -23060,7 +26018,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B189">
         <v>7600</v>
@@ -23084,7 +26042,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B190">
         <v>7800</v>
@@ -23108,7 +26066,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B191">
         <v>7950</v>
@@ -23132,7 +26090,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B192">
         <v>8150</v>
@@ -23156,7 +26114,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B193">
         <v>8350</v>
@@ -23180,7 +26138,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="B194">
         <v>8500</v>
@@ -23204,7 +26162,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="B195">
         <v>8700</v>
@@ -23228,7 +26186,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="B196">
         <v>8900</v>
@@ -23252,7 +26210,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="B197">
         <v>9100</v>
@@ -23276,629 +26234,506 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>301</v>
+        <v>276</v>
+      </c>
+      <c r="B198">
+        <v>9300</v>
       </c>
       <c r="C198">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="D198" s="1">
         <f>SUM($C$2:C198)</f>
-        <v>404850</v>
+        <v>414150</v>
       </c>
       <c r="E198">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>418500</v>
       </c>
       <c r="F198">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>302</v>
+        <v>277</v>
+      </c>
+      <c r="B199">
+        <v>9550</v>
       </c>
       <c r="C199">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9550</v>
       </c>
       <c r="D199" s="1">
         <f>SUM($C$2:C199)</f>
-        <v>404850</v>
+        <v>423700</v>
       </c>
       <c r="E199">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>429750</v>
       </c>
       <c r="F199">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>303</v>
+        <v>278</v>
+      </c>
+      <c r="B200">
+        <v>9750</v>
       </c>
       <c r="C200">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9750</v>
       </c>
       <c r="D200" s="1">
         <f>SUM($C$2:C200)</f>
-        <v>404850</v>
+        <v>433450</v>
       </c>
       <c r="E200">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>438750</v>
       </c>
       <c r="F200">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>304</v>
+        <v>279</v>
+      </c>
+      <c r="B201">
+        <v>9950</v>
       </c>
       <c r="C201">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9950</v>
       </c>
       <c r="D201" s="1">
         <f>SUM($C$2:C201)</f>
-        <v>404850</v>
+        <v>443400</v>
       </c>
       <c r="E201">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>447750</v>
       </c>
       <c r="F201">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>305</v>
+        <v>280</v>
+      </c>
+      <c r="B202">
+        <v>10200</v>
       </c>
       <c r="C202">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="D202" s="1">
         <f>SUM($C$2:C202)</f>
-        <v>404850</v>
+        <v>453600</v>
       </c>
       <c r="E202">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>459000</v>
       </c>
       <c r="F202">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>306</v>
+        <v>281</v>
+      </c>
+      <c r="B203">
+        <v>10400</v>
       </c>
       <c r="C203">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="D203" s="1">
         <f>SUM($C$2:C203)</f>
-        <v>404850</v>
+        <v>464000</v>
       </c>
       <c r="E203">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>468000</v>
       </c>
       <c r="F203">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>307</v>
+        <v>282</v>
+      </c>
+      <c r="B204">
+        <v>10650</v>
       </c>
       <c r="C204">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10650</v>
       </c>
       <c r="D204" s="1">
         <f>SUM($C$2:C204)</f>
-        <v>404850</v>
+        <v>474650</v>
       </c>
       <c r="E204">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>479250</v>
       </c>
       <c r="F204">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>308</v>
+        <v>283</v>
+      </c>
+      <c r="B205">
+        <v>10900</v>
       </c>
       <c r="C205">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="D205" s="1">
         <f>SUM($C$2:C205)</f>
-        <v>404850</v>
+        <v>485550</v>
       </c>
       <c r="E205">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>490500</v>
       </c>
       <c r="F205">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>309</v>
+        <v>284</v>
+      </c>
+      <c r="B206">
+        <v>11150</v>
       </c>
       <c r="C206">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11150</v>
       </c>
       <c r="D206" s="1">
         <f>SUM($C$2:C206)</f>
-        <v>404850</v>
+        <v>496700</v>
       </c>
       <c r="E206">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>501750</v>
       </c>
       <c r="F206">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>310</v>
+        <v>285</v>
+      </c>
+      <c r="B207">
+        <v>11400</v>
       </c>
       <c r="C207">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11400</v>
       </c>
       <c r="D207" s="1">
         <f>SUM($C$2:C207)</f>
-        <v>404850</v>
+        <v>508100</v>
       </c>
       <c r="E207">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>513000</v>
       </c>
       <c r="F207">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>311</v>
+        <v>286</v>
+      </c>
+      <c r="B208">
+        <v>11650</v>
       </c>
       <c r="C208">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11650</v>
       </c>
       <c r="D208" s="1">
         <f>SUM($C$2:C208)</f>
-        <v>404850</v>
+        <v>519750</v>
       </c>
       <c r="E208">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>524250</v>
       </c>
       <c r="F208">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>312</v>
+        <v>287</v>
+      </c>
+      <c r="B209">
+        <v>11950</v>
       </c>
       <c r="C209">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11950</v>
       </c>
       <c r="D209" s="1">
         <f>SUM($C$2:C209)</f>
-        <v>404850</v>
+        <v>531700</v>
       </c>
       <c r="E209">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>537750</v>
       </c>
       <c r="F209">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>313</v>
+        <v>288</v>
+      </c>
+      <c r="B210">
+        <v>12200</v>
       </c>
       <c r="C210">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="D210" s="1">
         <f>SUM($C$2:C210)</f>
-        <v>404850</v>
+        <v>543900</v>
       </c>
       <c r="E210">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>549000</v>
       </c>
       <c r="F210">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>314</v>
+        <v>289</v>
+      </c>
+      <c r="B211">
+        <v>12500</v>
       </c>
       <c r="C211">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="D211" s="1">
         <f>SUM($C$2:C211)</f>
-        <v>404850</v>
+        <v>556400</v>
       </c>
       <c r="E211">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>562500</v>
       </c>
       <c r="F211">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>315</v>
+        <v>290</v>
+      </c>
+      <c r="B212">
+        <v>12750</v>
       </c>
       <c r="C212">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12750</v>
       </c>
       <c r="D212" s="1">
         <f>SUM($C$2:C212)</f>
-        <v>404850</v>
+        <v>569150</v>
       </c>
       <c r="E212">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>573750</v>
       </c>
       <c r="F212">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>316</v>
+        <v>291</v>
+      </c>
+      <c r="B213">
+        <v>13050</v>
       </c>
       <c r="C213">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>13050</v>
       </c>
       <c r="D213" s="1">
         <f>SUM($C$2:C213)</f>
-        <v>404850</v>
+        <v>582200</v>
       </c>
       <c r="E213">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>587250</v>
       </c>
       <c r="F213">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>317</v>
+        <v>292</v>
+      </c>
+      <c r="B214">
+        <v>13350</v>
       </c>
       <c r="C214">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>13350</v>
       </c>
       <c r="D214" s="1">
         <f>SUM($C$2:C214)</f>
-        <v>404850</v>
+        <v>595550</v>
       </c>
       <c r="E214">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>600750</v>
       </c>
       <c r="F214">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>318</v>
+        <v>293</v>
+      </c>
+      <c r="B215">
+        <v>13650</v>
       </c>
       <c r="C215">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>13650</v>
       </c>
       <c r="D215" s="1">
         <f>SUM($C$2:C215)</f>
-        <v>404850</v>
+        <v>609200</v>
       </c>
       <c r="E215">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>614250</v>
       </c>
       <c r="F215">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>319</v>
+        <v>294</v>
+      </c>
+      <c r="B216">
+        <v>13950</v>
       </c>
       <c r="C216">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>13950</v>
       </c>
       <c r="D216" s="1">
         <f>SUM($C$2:C216)</f>
-        <v>404850</v>
+        <v>623150</v>
       </c>
       <c r="E216">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>627750</v>
       </c>
       <c r="F216">
         <f t="shared" si="11"/>
-        <v>-404850</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>320</v>
-      </c>
-      <c r="C217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D217" s="1">
-        <f>SUM($C$2:C217)</f>
-        <v>404850</v>
-      </c>
-      <c r="E217">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F217">
-        <f t="shared" si="11"/>
-        <v>-404850</v>
-      </c>
+      <c r="D217" s="1"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>321</v>
-      </c>
-      <c r="C218">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D218" s="1">
-        <f>SUM($C$2:C218)</f>
-        <v>404850</v>
-      </c>
-      <c r="E218">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F218">
-        <f t="shared" si="11"/>
-        <v>-404850</v>
-      </c>
+      <c r="D218" s="1"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>322</v>
-      </c>
-      <c r="C219">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D219" s="1">
-        <f>SUM($C$2:C219)</f>
-        <v>404850</v>
-      </c>
-      <c r="E219">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F219">
-        <f t="shared" si="11"/>
-        <v>-404850</v>
-      </c>
+      <c r="D219" s="1"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>323</v>
-      </c>
-      <c r="C220">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D220" s="1">
-        <f>SUM($C$2:C220)</f>
-        <v>404850</v>
-      </c>
-      <c r="E220">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F220">
-        <f t="shared" si="11"/>
-        <v>-404850</v>
-      </c>
+      <c r="D220" s="1"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>324</v>
-      </c>
-      <c r="C221">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D221" s="1">
-        <f>SUM($C$2:C221)</f>
-        <v>404850</v>
-      </c>
-      <c r="E221">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F221">
-        <f t="shared" si="11"/>
-        <v>-404850</v>
-      </c>
+      <c r="D221" s="1"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>325</v>
-      </c>
-      <c r="C222">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D222" s="1">
-        <f>SUM($C$2:C222)</f>
-        <v>404850</v>
-      </c>
-      <c r="E222">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F222">
-        <f t="shared" si="11"/>
-        <v>-404850</v>
-      </c>
+      <c r="D222" s="1"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>326</v>
-      </c>
-      <c r="C223">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D223" s="1">
-        <f>SUM($C$2:C223)</f>
-        <v>404850</v>
-      </c>
-      <c r="E223">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F223">
-        <f t="shared" si="11"/>
-        <v>-404850</v>
-      </c>
+      <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>327</v>
-      </c>
-      <c r="C224">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D224" s="1">
-        <f>SUM($C$2:C224)</f>
-        <v>404850</v>
-      </c>
-      <c r="E224">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F224">
-        <f t="shared" si="11"/>
-        <v>-404850</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>328</v>
-      </c>
-      <c r="C225">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D225" s="1">
-        <f>SUM($C$2:C225)</f>
-        <v>404850</v>
-      </c>
-      <c r="E225">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F225">
-        <f t="shared" si="11"/>
-        <v>-404850</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>329</v>
-      </c>
-      <c r="C226">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D226" s="1">
-        <f>SUM($C$2:C226)</f>
-        <v>404850</v>
-      </c>
-      <c r="E226">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F226">
-        <f t="shared" si="11"/>
-        <v>-404850</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232" s="1"/>
     </row>
     <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
@@ -26385,7 +29220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657F63FD-C8A7-4F2B-99BB-62768698F88D}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -29145,7 +31980,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bean - lote.xlsx
+++ b/bean - lote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Ryan\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F08AA-F332-4EA5-8AAC-5A97327A00BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CACA00-30C6-4DF8-8BBE-94EEEEBC0321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="-45" windowWidth="9465" windowHeight="15510" firstSheet="15" activeTab="15" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="14" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -2069,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45226F75-130C-494D-864C-7CB650862C6D}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B84" sqref="A2:B84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,6 +2123,9 @@
       </c>
       <c r="H2">
         <v>93</v>
+      </c>
+      <c r="I2">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4174,11 +4177,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED91CD1-2069-4860-AAC1-395BF7FDC1B8}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B122" sqref="A2:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7131,8 +7137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBFA0BE-7EC6-435D-A0ED-2A73F438E415}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10088,8 +10094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79893292-557B-4253-8167-4421586F24A1}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B122" sqref="A2:B122"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13046,7 +13052,7 @@
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B122" sqref="A2:B122"/>
+      <selection activeCell="A88" sqref="A88:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13076,7 +13082,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -13103,7 +13109,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -13133,7 +13139,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -13163,7 +13169,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -13187,7 +13193,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -13211,7 +13217,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>250</v>
@@ -13235,7 +13241,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>250</v>
@@ -13259,7 +13265,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>250</v>
@@ -13283,7 +13289,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>250</v>
@@ -13307,7 +13313,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>250</v>
@@ -13331,7 +13337,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>300</v>
@@ -13355,7 +13361,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>300</v>
@@ -13379,7 +13385,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>300</v>
@@ -13403,7 +13409,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>300</v>
@@ -13427,7 +13433,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>350</v>
@@ -13451,7 +13457,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>350</v>
@@ -13475,7 +13481,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>350</v>
@@ -13499,7 +13505,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>400</v>
@@ -13523,7 +13529,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>400</v>
@@ -13547,7 +13553,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>400</v>
@@ -13571,7 +13577,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>450</v>
@@ -13595,7 +13601,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>450</v>
@@ -13619,7 +13625,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>450</v>
@@ -13643,7 +13649,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>500</v>
@@ -13667,7 +13673,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B26">
         <v>500</v>
@@ -13691,7 +13697,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B27">
         <v>550</v>
@@ -13715,7 +13721,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>550</v>
@@ -13739,7 +13745,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>550</v>
@@ -13763,7 +13769,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>600</v>
@@ -13787,7 +13793,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B31">
         <v>600</v>
@@ -13811,7 +13817,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B32">
         <v>650</v>
@@ -13835,7 +13841,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>650</v>
@@ -13859,7 +13865,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B34">
         <v>700</v>
@@ -13883,7 +13889,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B35">
         <v>750</v>
@@ -13907,7 +13913,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B36">
         <v>750</v>
@@ -13931,7 +13937,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B37">
         <v>800</v>
@@ -13955,7 +13961,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B38">
         <v>800</v>
@@ -13979,7 +13985,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B39">
         <v>850</v>
@@ -14003,7 +14009,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B40">
         <v>900</v>
@@ -14027,7 +14033,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B41">
         <v>950</v>
@@ -14051,7 +14057,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B42">
         <v>950</v>
@@ -14075,7 +14081,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B43">
         <v>1000</v>
@@ -14099,7 +14105,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>1050</v>
@@ -14123,7 +14129,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B45">
         <v>1100</v>
@@ -14147,7 +14153,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B46">
         <v>1150</v>
@@ -14171,7 +14177,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B47">
         <v>1200</v>
@@ -14195,7 +14201,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B48">
         <v>1250</v>
@@ -14219,7 +14225,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B49">
         <v>1300</v>
@@ -14243,7 +14249,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B50">
         <v>1350</v>
@@ -14267,7 +14273,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B51">
         <v>1400</v>
@@ -14291,7 +14297,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B52">
         <v>1450</v>
@@ -14315,7 +14321,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B53">
         <v>1500</v>
@@ -14339,7 +14345,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B54">
         <v>1600</v>
@@ -14363,7 +14369,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B55">
         <v>1650</v>
@@ -14387,7 +14393,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B56">
         <v>1700</v>
@@ -14411,7 +14417,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B57">
         <v>1800</v>
@@ -14435,7 +14441,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B58">
         <v>1850</v>
@@ -14459,7 +14465,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B59">
         <v>1950</v>
@@ -14483,7 +14489,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B60">
         <v>2000</v>
@@ -14507,7 +14513,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B61">
         <v>2100</v>
@@ -14531,7 +14537,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B62">
         <v>2200</v>
@@ -14555,7 +14561,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B63">
         <v>2300</v>
@@ -14579,7 +14585,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B64">
         <v>2400</v>
@@ -14603,7 +14609,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B65">
         <v>2500</v>
@@ -14627,7 +14633,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B66">
         <v>2600</v>
@@ -14651,7 +14657,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B67">
         <v>2700</v>
@@ -14675,7 +14681,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B68">
         <v>2800</v>
@@ -14699,7 +14705,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B69">
         <v>2900</v>
@@ -14723,7 +14729,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B70">
         <v>3050</v>
@@ -14747,7 +14753,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B71">
         <v>3150</v>
@@ -14771,7 +14777,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B72">
         <v>3300</v>
@@ -14795,7 +14801,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B73">
         <v>3450</v>
@@ -14819,7 +14825,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B74">
         <v>3600</v>
@@ -14843,7 +14849,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B75">
         <v>3750</v>
@@ -14867,7 +14873,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B76">
         <v>3900</v>
@@ -14891,7 +14897,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B77">
         <v>4050</v>
@@ -14915,7 +14921,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B78">
         <v>4200</v>
@@ -14939,7 +14945,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B79">
         <v>4400</v>
@@ -14963,7 +14969,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B80">
         <v>4600</v>
@@ -14987,7 +14993,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B81">
         <v>4750</v>
@@ -15011,7 +15017,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B82">
         <v>4950</v>
@@ -15035,7 +15041,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B83">
         <v>5150</v>
@@ -15059,7 +15065,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B84">
         <v>5400</v>
@@ -15083,7 +15089,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B85">
         <v>5600</v>
@@ -15107,7 +15113,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B86">
         <v>5850</v>
@@ -15131,7 +15137,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B87">
         <v>6100</v>
@@ -15155,7 +15161,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B88">
         <v>6350</v>
@@ -15179,7 +15185,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B89">
         <v>6600</v>
@@ -15203,7 +15209,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B90">
         <v>6900</v>
@@ -15227,7 +15233,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B91">
         <v>7200</v>
@@ -15251,7 +15257,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B92">
         <v>7450</v>
@@ -15275,7 +15281,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B93">
         <v>7800</v>
@@ -15299,7 +15305,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B94">
         <v>8100</v>
@@ -15323,7 +15329,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B95">
         <v>8450</v>
@@ -15347,7 +15353,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B96">
         <v>8800</v>
@@ -15371,7 +15377,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B97">
         <v>9150</v>
@@ -15395,7 +15401,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B98">
         <v>9550</v>
@@ -15419,7 +15425,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B99">
         <v>9950</v>
@@ -15443,7 +15449,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B100">
         <v>10350</v>
@@ -15467,7 +15473,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B101">
         <v>10800</v>
@@ -15491,7 +15497,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B102">
         <v>11250</v>
@@ -15515,7 +15521,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B103">
         <v>11700</v>
@@ -15539,7 +15545,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B104">
         <v>12200</v>
@@ -15563,7 +15569,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B105">
         <v>12700</v>
@@ -15587,7 +15593,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B106">
         <v>13250</v>
@@ -15611,7 +15617,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B107">
         <v>13800</v>
@@ -15635,7 +15641,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B108">
         <v>14350</v>
@@ -15659,7 +15665,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B109">
         <v>14950</v>
@@ -15683,7 +15689,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B110">
         <v>15600</v>
@@ -15707,7 +15713,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B111">
         <v>16250</v>
@@ -15731,7 +15737,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B112">
         <v>16900</v>
@@ -15755,7 +15761,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B113">
         <v>17600</v>
@@ -15779,7 +15785,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B114">
         <v>18350</v>
@@ -15803,7 +15809,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B115">
         <v>19100</v>
@@ -15827,7 +15833,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B116">
         <v>19900</v>
@@ -15851,7 +15857,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B117">
         <v>20750</v>
@@ -15875,7 +15881,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B118">
         <v>21500</v>
@@ -15899,7 +15905,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B119">
         <v>22500</v>
@@ -15923,7 +15929,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B120">
         <v>23450</v>
@@ -15947,7 +15953,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B121">
         <v>24400</v>
@@ -15971,7 +15977,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B122">
         <v>25450</v>
@@ -16002,8 +16008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A873C-7C48-476D-9E21-58D8DD43211F}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B197" sqref="B197:I197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21481,7 +21487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76277A36-1C7D-4579-B642-BFA48C7F2592}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+    <sheetView topLeftCell="A192" workbookViewId="0">
       <selection activeCell="H222" sqref="H222"/>
     </sheetView>
   </sheetViews>
@@ -26168,7 +26174,7 @@
         <v>8700</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C226" si="9">B195</f>
+        <f t="shared" ref="C195:C216" si="9">B195</f>
         <v>8700</v>
       </c>
       <c r="D195" s="1">
@@ -26176,11 +26182,11 @@
         <v>386850</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E226" si="10">B195*45</f>
+        <f t="shared" ref="E195:E216" si="10">B195*45</f>
         <v>391500</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F226" si="11">E195-D195</f>
+        <f t="shared" ref="F195:F216" si="11">E195-D195</f>
         <v>4650</v>
       </c>
     </row>
@@ -30411,8 +30417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CC0D84-9460-46CC-B2AE-5F199CCF7404}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B64" sqref="A2:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30468,6 +30474,9 @@
       </c>
       <c r="H2">
         <v>69</v>
+      </c>
+      <c r="I2">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -33484,8 +33493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7B0409-2C7D-4216-B367-7A8D0DF60253}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33539,6 +33548,9 @@
       <c r="H2">
         <v>93</v>
       </c>
+      <c r="I2">
+        <v>112</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
